--- a/Industry/201612-201907/HKD/MN/Analysis_51_9.2.1 -  of mink skins_HKD__MN.xlsx
+++ b/Industry/201612-201907/HKD/MN/Analysis_51_9.2.1 -  of mink skins_HKD__MN.xlsx
@@ -9,25 +9,28 @@
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
     <sheet name="TXbycty" sheetId="2" r:id="rId2"/>
-    <sheet name="TXbyEU" sheetId="3" r:id="rId3"/>
-    <sheet name="TXbyAsean" sheetId="4" r:id="rId4"/>
-    <sheet name="TXbyAsia" sheetId="5" r:id="rId5"/>
-    <sheet name="IMbyctyasOrigin" sheetId="6" r:id="rId6"/>
-    <sheet name="IMbyctyasOrigin_Q" sheetId="7" r:id="rId7"/>
-    <sheet name="IMbyEuropeasOrigin" sheetId="8" r:id="rId8"/>
-    <sheet name="TXbyproduct" sheetId="9" r:id="rId9"/>
-    <sheet name="DXbycty" sheetId="10" r:id="rId10"/>
-    <sheet name="DXbyEU" sheetId="11" r:id="rId11"/>
-    <sheet name="DXbyAsean" sheetId="12" r:id="rId12"/>
-    <sheet name="DXbyAsia" sheetId="13" r:id="rId13"/>
-    <sheet name="DXbyproduct" sheetId="14" r:id="rId14"/>
+    <sheet name="TXbycty_Q" sheetId="3" r:id="rId3"/>
+    <sheet name="TXbyEU" sheetId="4" r:id="rId4"/>
+    <sheet name="TXbyAsean" sheetId="5" r:id="rId5"/>
+    <sheet name="TXbyAsia" sheetId="6" r:id="rId6"/>
+    <sheet name="IMbyctyasOrigin" sheetId="7" r:id="rId7"/>
+    <sheet name="IMbyctyasOrigin_Q" sheetId="8" r:id="rId8"/>
+    <sheet name="IMbyEuropeasOrigin" sheetId="9" r:id="rId9"/>
+    <sheet name="TXbyproduct" sheetId="10" r:id="rId10"/>
+    <sheet name="DXbycty" sheetId="11" r:id="rId11"/>
+    <sheet name="DXbycty_Q" sheetId="12" r:id="rId12"/>
+    <sheet name="DXbyEU" sheetId="13" r:id="rId13"/>
+    <sheet name="DXbyAsean" sheetId="14" r:id="rId14"/>
+    <sheet name="DXbyAsia" sheetId="15" r:id="rId15"/>
+    <sheet name="DXbyproduct" sheetId="16" r:id="rId16"/>
+    <sheet name="RXbycty_Q" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="80">
   <si>
     <t>201612</t>
   </si>
@@ -53,6 +56,9 @@
     <t>201907_% CHG</t>
   </si>
   <si>
+    <t>HKD MN</t>
+  </si>
+  <si>
     <t>Domestic Exports</t>
   </si>
   <si>
@@ -66,6 +72,15 @@
   </si>
   <si>
     <t>Imports</t>
+  </si>
+  <si>
+    <t>Total Exports Quantity</t>
+  </si>
+  <si>
+    <t>Domestic Exports Quantity</t>
+  </si>
+  <si>
+    <t>Re-exports Quantity</t>
   </si>
   <si>
     <t>Imports by Origin Quantity</t>
@@ -90,9 +105,6 @@
   </si>
   <si>
     <t>201907_% Share of overall TX</t>
-  </si>
-  <si>
-    <t>HKD MN</t>
   </si>
   <si>
     <t>All individual countries</t>
@@ -167,6 +179,21 @@
     <t>TURKEY</t>
   </si>
   <si>
+    <t>201612_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201712_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201807_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201812_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201907_% Share of overall TX_Q</t>
+  </si>
+  <si>
     <t>EU</t>
   </si>
   <si>
@@ -225,6 +252,24 @@
   </si>
   <si>
     <t>201712_% Share of overall DX</t>
+  </si>
+  <si>
+    <t>201712_% Share of overall DX_Q</t>
+  </si>
+  <si>
+    <t>201612_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201712_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201807_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201812_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201907_% Share of overall RX_Q</t>
   </si>
 </sst>
 </file>
@@ -582,13 +627,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +664,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -625,7 +673,7 @@
         <v>0.03</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -642,7 +690,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>15.706</v>
@@ -671,7 +719,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>13.647</v>
@@ -700,7 +748,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>15.706</v>
@@ -729,7 +777,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>70.15000000000001</v>
@@ -758,30 +806,114 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
+        <v>0.013</v>
+      </c>
+      <c r="C7">
+        <v>0.018</v>
+      </c>
+      <c r="D7">
+        <v>35.281</v>
+      </c>
+      <c r="E7">
+        <v>0.007</v>
+      </c>
+      <c r="F7">
+        <v>0.019</v>
+      </c>
+      <c r="G7">
+        <v>5.646</v>
+      </c>
+      <c r="H7">
+        <v>0.003</v>
+      </c>
+      <c r="I7">
+        <v>-53.867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-100</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.013</v>
+      </c>
+      <c r="C9">
+        <v>0.018</v>
+      </c>
+      <c r="D9">
+        <v>35.251</v>
+      </c>
+      <c r="E9">
+        <v>0.007</v>
+      </c>
+      <c r="F9">
+        <v>0.019</v>
+      </c>
+      <c r="G9">
+        <v>5.669</v>
+      </c>
+      <c r="H9">
+        <v>0.003</v>
+      </c>
+      <c r="I9">
+        <v>-53.867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
         <v>0.068</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>0.113</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>66.92</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>0.079</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>0.141</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <v>25.31</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <v>0.157</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <v>98.054</v>
       </c>
     </row>
@@ -791,6 +923,160 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>15.706</v>
+      </c>
+      <c r="C2">
+        <v>22.045</v>
+      </c>
+      <c r="D2">
+        <v>40.367</v>
+      </c>
+      <c r="E2">
+        <v>4.744</v>
+      </c>
+      <c r="F2">
+        <v>12.229</v>
+      </c>
+      <c r="G2">
+        <v>-44.526</v>
+      </c>
+      <c r="H2">
+        <v>5.343</v>
+      </c>
+      <c r="I2">
+        <v>12.61</v>
+      </c>
+      <c r="J2">
+        <v>60.067</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>15.706</v>
+      </c>
+      <c r="C3">
+        <v>22.045</v>
+      </c>
+      <c r="D3">
+        <v>40.367</v>
+      </c>
+      <c r="E3">
+        <v>4.744</v>
+      </c>
+      <c r="F3">
+        <v>12.229</v>
+      </c>
+      <c r="G3">
+        <v>-44.526</v>
+      </c>
+      <c r="H3">
+        <v>5.343</v>
+      </c>
+      <c r="I3">
+        <v>12.61</v>
+      </c>
+      <c r="J3">
+        <v>60.067</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -800,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -824,15 +1110,15 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -858,7 +1144,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -884,7 +1170,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -907,7 +1193,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -933,7 +1219,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -959,7 +1245,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -982,7 +1268,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1005,7 +1291,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1031,7 +1317,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1057,7 +1343,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1083,7 +1369,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1109,7 +1395,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1118,7 +1404,7 @@
         <v>0.03</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,7 +1427,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1167,7 +1453,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1193,7 +1479,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1219,7 +1505,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1245,7 +1531,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1254,7 +1540,7 @@
         <v>0.03</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1277,7 +1563,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1294,7 +1580,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1308,7 +1594,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1319,7 +1605,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1330,7 +1616,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1347,7 +1633,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1364,7 +1650,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1384,7 +1670,601 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-100</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-100</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1394,7 +2274,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1412,15 +2292,15 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1446,7 +2326,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1472,7 +2352,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1498,7 +2378,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1524,7 +2404,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1550,7 +2430,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1576,7 +2456,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1602,7 +2482,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1619,7 +2499,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1633,7 +2513,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1644,7 +2524,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1664,7 +2544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1674,7 +2554,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1689,15 +2569,15 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1720,7 +2600,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1743,7 +2623,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1763,7 +2643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -1773,7 +2653,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1797,15 +2677,15 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1831,7 +2711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1840,7 +2720,7 @@
         <v>0.03</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1863,7 +2743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1889,7 +2769,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1915,7 +2795,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1938,7 +2818,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1961,7 +2841,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1970,7 +2850,7 @@
         <v>0.03</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1993,7 +2873,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2013,7 +2893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -2023,7 +2903,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2047,15 +2927,15 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2064,7 +2944,7 @@
         <v>0.03</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2087,7 +2967,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2096,7 +2976,7 @@
         <v>0.03</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2115,6 +2995,987 @@
       </c>
       <c r="J3">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0.013</v>
+      </c>
+      <c r="C2">
+        <v>0.018</v>
+      </c>
+      <c r="D2">
+        <v>35.251</v>
+      </c>
+      <c r="E2">
+        <v>0.007</v>
+      </c>
+      <c r="F2">
+        <v>0.019</v>
+      </c>
+      <c r="G2">
+        <v>5.669</v>
+      </c>
+      <c r="H2">
+        <v>0.003</v>
+      </c>
+      <c r="I2">
+        <v>-53.867</v>
+      </c>
+      <c r="J2">
+        <v>0.061</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0.006</v>
+      </c>
+      <c r="C3">
+        <v>0.006</v>
+      </c>
+      <c r="D3">
+        <v>-1.04</v>
+      </c>
+      <c r="E3">
+        <v>0.001</v>
+      </c>
+      <c r="F3">
+        <v>0.001</v>
+      </c>
+      <c r="G3">
+        <v>-74.702</v>
+      </c>
+      <c r="H3">
+        <v>0.002</v>
+      </c>
+      <c r="I3">
+        <v>249.035</v>
+      </c>
+      <c r="J3">
+        <v>0.016</v>
+      </c>
+      <c r="K3">
+        <v>43.136</v>
+      </c>
+      <c r="L3">
+        <v>31.561</v>
+      </c>
+      <c r="M3">
+        <v>8.366</v>
+      </c>
+      <c r="N3">
+        <v>7.556</v>
+      </c>
+      <c r="O3">
+        <v>63.294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0.002</v>
+      </c>
+      <c r="C4">
+        <v>0.002</v>
+      </c>
+      <c r="D4">
+        <v>23.737</v>
+      </c>
+      <c r="E4">
+        <v>0.002</v>
+      </c>
+      <c r="F4">
+        <v>0.004</v>
+      </c>
+      <c r="G4">
+        <v>53.919</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-75.29300000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.01</v>
+      </c>
+      <c r="K4">
+        <v>14.64</v>
+      </c>
+      <c r="L4">
+        <v>13.394</v>
+      </c>
+      <c r="M4">
+        <v>24.116</v>
+      </c>
+      <c r="N4">
+        <v>19.51</v>
+      </c>
+      <c r="O4">
+        <v>12.915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.002</v>
+      </c>
+      <c r="D5">
+        <v>485.57</v>
+      </c>
+      <c r="E5">
+        <v>0.005</v>
+      </c>
+      <c r="F5">
+        <v>0.013</v>
+      </c>
+      <c r="G5">
+        <v>627.393</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-93.78</v>
+      </c>
+      <c r="J5">
+        <v>0.02</v>
+      </c>
+      <c r="K5">
+        <v>2.227</v>
+      </c>
+      <c r="L5">
+        <v>9.641999999999999</v>
+      </c>
+      <c r="M5">
+        <v>63.793</v>
+      </c>
+      <c r="N5">
+        <v>66.372</v>
+      </c>
+      <c r="O5">
+        <v>8.601000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3200</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-42.424</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>862.5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.007</v>
+      </c>
+      <c r="L6">
+        <v>0.182</v>
+      </c>
+      <c r="M6">
+        <v>0.215</v>
+      </c>
+      <c r="N6">
+        <v>0.099</v>
+      </c>
+      <c r="O6">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>0.002</v>
+      </c>
+      <c r="C7">
+        <v>0.001</v>
+      </c>
+      <c r="D7">
+        <v>-45.981</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-82.238</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-14.634</v>
+      </c>
+      <c r="J7">
+        <v>0.003</v>
+      </c>
+      <c r="K7">
+        <v>11.995</v>
+      </c>
+      <c r="L7">
+        <v>4.791</v>
+      </c>
+      <c r="M7">
+        <v>1.103</v>
+      </c>
+      <c r="N7">
+        <v>0.805</v>
+      </c>
+      <c r="O7">
+        <v>2.041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-21.519</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-67.742</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1.181</v>
+      </c>
+      <c r="L8">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.209</v>
+      </c>
+      <c r="O8">
+        <v>2.012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-5.556</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3.676</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-46.392</v>
+      </c>
+      <c r="J9">
+        <v>0.001</v>
+      </c>
+      <c r="K9">
+        <v>1.076</v>
+      </c>
+      <c r="L9">
+        <v>0.751</v>
+      </c>
+      <c r="M9">
+        <v>1.305</v>
+      </c>
+      <c r="N9">
+        <v>0.737</v>
+      </c>
+      <c r="O9">
+        <v>1.516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-50</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>142.857</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>164.706</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.105</v>
+      </c>
+      <c r="L10">
+        <v>0.039</v>
+      </c>
+      <c r="M10">
+        <v>0.229</v>
+      </c>
+      <c r="N10">
+        <v>0.089</v>
+      </c>
+      <c r="O10">
+        <v>1.312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-42.857</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>17.857</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.366</v>
+      </c>
+      <c r="L11">
+        <v>0.155</v>
+      </c>
+      <c r="M11">
+        <v>0.134</v>
+      </c>
+      <c r="N11">
+        <v>0.173</v>
+      </c>
+      <c r="O11">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>0.003</v>
+      </c>
+      <c r="C12">
+        <v>0.006</v>
+      </c>
+      <c r="D12">
+        <v>91.79300000000001</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-99.86799999999999</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K12">
+        <v>23.586</v>
+      </c>
+      <c r="L12">
+        <v>33.446</v>
+      </c>
+      <c r="N12">
+        <v>0.042</v>
+      </c>
+      <c r="O12">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1575</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>559.701</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+      <c r="J13">
+        <v>0.001</v>
+      </c>
+      <c r="K13">
+        <v>0.03</v>
+      </c>
+      <c r="L13">
+        <v>0.37</v>
+      </c>
+      <c r="M13">
+        <v>0.067</v>
+      </c>
+      <c r="N13">
+        <v>2.311</v>
+      </c>
+      <c r="O13">
+        <v>0.583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.001</v>
+      </c>
+      <c r="D14">
+        <v>1507.5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-97.512</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>18.75</v>
+      </c>
+      <c r="J14">
+        <v>0.001</v>
+      </c>
+      <c r="K14">
+        <v>0.299</v>
+      </c>
+      <c r="L14">
+        <v>3.553</v>
+      </c>
+      <c r="M14">
+        <v>0.215</v>
+      </c>
+      <c r="N14">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-57.576</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-64.286</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>140</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.247</v>
+      </c>
+      <c r="L15">
+        <v>0.077</v>
+      </c>
+      <c r="M15">
+        <v>0.067</v>
+      </c>
+      <c r="N15">
+        <v>0.026</v>
+      </c>
+      <c r="O15">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>182.857</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-36.364</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>-61.538</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.262</v>
+      </c>
+      <c r="L16">
+        <v>0.547</v>
+      </c>
+      <c r="M16">
+        <v>0.35</v>
+      </c>
+      <c r="N16">
+        <v>0.329</v>
+      </c>
+      <c r="O16">
+        <v>0.292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>300</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>657.5</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>133.333</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.075</v>
+      </c>
+      <c r="L17">
+        <v>0.221</v>
+      </c>
+      <c r="M17">
+        <v>0.04</v>
+      </c>
+      <c r="N17">
+        <v>1.584</v>
+      </c>
+      <c r="O17">
+        <v>0.204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-26.316</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.142</v>
+      </c>
+      <c r="L18">
+        <v>0.105</v>
+      </c>
+      <c r="N18">
+        <v>0.073</v>
+      </c>
+      <c r="O18">
+        <v>0.08699999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>-100</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.015</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>-65.217</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.344</v>
+      </c>
+      <c r="L24">
+        <v>0.08799999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>173.077</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.194</v>
+      </c>
+      <c r="L25">
+        <v>0.392</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +3993,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2159,27 +4020,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>15.706</v>
@@ -2226,7 +4087,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>4.641</v>
@@ -2273,7 +4134,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0.012</v>
@@ -2320,7 +4181,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>1.351</v>
@@ -2367,7 +4228,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>3.907</v>
@@ -2414,7 +4275,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0.123</v>
@@ -2452,7 +4313,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>1.175</v>
@@ -2499,7 +4360,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>0.045</v>
@@ -2546,7 +4407,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0.06</v>
@@ -2593,7 +4454,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>0.323</v>
@@ -2640,7 +4501,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>0.046</v>
@@ -2687,7 +4548,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>0.008999999999999999</v>
@@ -2734,7 +4595,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>0.008999999999999999</v>
@@ -2781,7 +4642,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>2.882</v>
@@ -2819,7 +4680,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>0.484</v>
@@ -2866,7 +4727,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>0.148</v>
@@ -2904,7 +4765,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>0.356</v>
@@ -2951,7 +4812,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>0.017</v>
@@ -2974,7 +4835,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2988,7 +4849,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>0.011</v>
@@ -3008,7 +4869,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>0.022</v>
@@ -3028,7 +4889,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3048,7 +4909,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>0.021</v>
@@ -3074,7 +4935,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>0.063</v>
@@ -3104,6 +4965,987 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0.013</v>
+      </c>
+      <c r="C2">
+        <v>0.018</v>
+      </c>
+      <c r="D2">
+        <v>35.281</v>
+      </c>
+      <c r="E2">
+        <v>0.007</v>
+      </c>
+      <c r="F2">
+        <v>0.019</v>
+      </c>
+      <c r="G2">
+        <v>5.646</v>
+      </c>
+      <c r="H2">
+        <v>0.003</v>
+      </c>
+      <c r="I2">
+        <v>-53.867</v>
+      </c>
+      <c r="J2">
+        <v>0.061</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0.006</v>
+      </c>
+      <c r="C3">
+        <v>0.006</v>
+      </c>
+      <c r="D3">
+        <v>-0.97</v>
+      </c>
+      <c r="E3">
+        <v>0.001</v>
+      </c>
+      <c r="F3">
+        <v>0.001</v>
+      </c>
+      <c r="G3">
+        <v>-74.72</v>
+      </c>
+      <c r="H3">
+        <v>0.002</v>
+      </c>
+      <c r="I3">
+        <v>249.035</v>
+      </c>
+      <c r="J3">
+        <v>0.016</v>
+      </c>
+      <c r="K3">
+        <v>43.136</v>
+      </c>
+      <c r="L3">
+        <v>31.577</v>
+      </c>
+      <c r="M3">
+        <v>8.366</v>
+      </c>
+      <c r="N3">
+        <v>7.556</v>
+      </c>
+      <c r="O3">
+        <v>63.294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0.002</v>
+      </c>
+      <c r="C4">
+        <v>0.002</v>
+      </c>
+      <c r="D4">
+        <v>23.737</v>
+      </c>
+      <c r="E4">
+        <v>0.002</v>
+      </c>
+      <c r="F4">
+        <v>0.004</v>
+      </c>
+      <c r="G4">
+        <v>53.919</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-75.29300000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.01</v>
+      </c>
+      <c r="K4">
+        <v>14.64</v>
+      </c>
+      <c r="L4">
+        <v>13.391</v>
+      </c>
+      <c r="M4">
+        <v>24.116</v>
+      </c>
+      <c r="N4">
+        <v>19.51</v>
+      </c>
+      <c r="O4">
+        <v>12.915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.002</v>
+      </c>
+      <c r="D5">
+        <v>485.57</v>
+      </c>
+      <c r="E5">
+        <v>0.005</v>
+      </c>
+      <c r="F5">
+        <v>0.013</v>
+      </c>
+      <c r="G5">
+        <v>627.393</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-93.78</v>
+      </c>
+      <c r="J5">
+        <v>0.02</v>
+      </c>
+      <c r="K5">
+        <v>2.227</v>
+      </c>
+      <c r="L5">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M5">
+        <v>63.793</v>
+      </c>
+      <c r="N5">
+        <v>66.372</v>
+      </c>
+      <c r="O5">
+        <v>8.601000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3200</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-42.424</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>862.5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.007</v>
+      </c>
+      <c r="L6">
+        <v>0.182</v>
+      </c>
+      <c r="M6">
+        <v>0.215</v>
+      </c>
+      <c r="N6">
+        <v>0.099</v>
+      </c>
+      <c r="O6">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>0.002</v>
+      </c>
+      <c r="C7">
+        <v>0.001</v>
+      </c>
+      <c r="D7">
+        <v>-45.981</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-82.238</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-14.634</v>
+      </c>
+      <c r="J7">
+        <v>0.003</v>
+      </c>
+      <c r="K7">
+        <v>11.995</v>
+      </c>
+      <c r="L7">
+        <v>4.79</v>
+      </c>
+      <c r="M7">
+        <v>1.103</v>
+      </c>
+      <c r="N7">
+        <v>0.805</v>
+      </c>
+      <c r="O7">
+        <v>2.041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-21.519</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-67.742</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1.181</v>
+      </c>
+      <c r="L8">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.209</v>
+      </c>
+      <c r="O8">
+        <v>2.012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-5.556</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3.676</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-46.392</v>
+      </c>
+      <c r="J9">
+        <v>0.001</v>
+      </c>
+      <c r="K9">
+        <v>1.076</v>
+      </c>
+      <c r="L9">
+        <v>0.751</v>
+      </c>
+      <c r="M9">
+        <v>1.305</v>
+      </c>
+      <c r="N9">
+        <v>0.737</v>
+      </c>
+      <c r="O9">
+        <v>1.516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-50</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>142.857</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>164.706</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.105</v>
+      </c>
+      <c r="L10">
+        <v>0.039</v>
+      </c>
+      <c r="M10">
+        <v>0.229</v>
+      </c>
+      <c r="N10">
+        <v>0.089</v>
+      </c>
+      <c r="O10">
+        <v>1.312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-42.857</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>17.857</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.366</v>
+      </c>
+      <c r="L11">
+        <v>0.155</v>
+      </c>
+      <c r="M11">
+        <v>0.134</v>
+      </c>
+      <c r="N11">
+        <v>0.173</v>
+      </c>
+      <c r="O11">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>0.003</v>
+      </c>
+      <c r="C12">
+        <v>0.006</v>
+      </c>
+      <c r="D12">
+        <v>91.79300000000001</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-99.86799999999999</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K12">
+        <v>23.586</v>
+      </c>
+      <c r="L12">
+        <v>33.438</v>
+      </c>
+      <c r="N12">
+        <v>0.042</v>
+      </c>
+      <c r="O12">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1575</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>559.701</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+      <c r="J13">
+        <v>0.001</v>
+      </c>
+      <c r="K13">
+        <v>0.03</v>
+      </c>
+      <c r="L13">
+        <v>0.37</v>
+      </c>
+      <c r="M13">
+        <v>0.067</v>
+      </c>
+      <c r="N13">
+        <v>2.311</v>
+      </c>
+      <c r="O13">
+        <v>0.583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.001</v>
+      </c>
+      <c r="D14">
+        <v>1507.5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-97.512</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>18.75</v>
+      </c>
+      <c r="J14">
+        <v>0.001</v>
+      </c>
+      <c r="K14">
+        <v>0.299</v>
+      </c>
+      <c r="L14">
+        <v>3.552</v>
+      </c>
+      <c r="M14">
+        <v>0.215</v>
+      </c>
+      <c r="N14">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-57.576</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-64.286</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>140</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.247</v>
+      </c>
+      <c r="L15">
+        <v>0.077</v>
+      </c>
+      <c r="M15">
+        <v>0.067</v>
+      </c>
+      <c r="N15">
+        <v>0.026</v>
+      </c>
+      <c r="O15">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>182.857</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-36.364</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>-61.538</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.262</v>
+      </c>
+      <c r="L16">
+        <v>0.547</v>
+      </c>
+      <c r="M16">
+        <v>0.35</v>
+      </c>
+      <c r="N16">
+        <v>0.329</v>
+      </c>
+      <c r="O16">
+        <v>0.292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>300</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>657.5</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>133.333</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.075</v>
+      </c>
+      <c r="L17">
+        <v>0.221</v>
+      </c>
+      <c r="M17">
+        <v>0.04</v>
+      </c>
+      <c r="N17">
+        <v>1.584</v>
+      </c>
+      <c r="O17">
+        <v>0.204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-26.316</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.142</v>
+      </c>
+      <c r="L18">
+        <v>0.105</v>
+      </c>
+      <c r="N18">
+        <v>0.073</v>
+      </c>
+      <c r="O18">
+        <v>0.08699999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>-100</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.015</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>-65.217</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.344</v>
+      </c>
+      <c r="L24">
+        <v>0.08799999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>173.077</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.194</v>
+      </c>
+      <c r="L25">
+        <v>0.392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -3113,7 +5955,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3140,27 +5982,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>0.586</v>
@@ -3207,7 +6049,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0.045</v>
@@ -3254,7 +6096,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0.06</v>
@@ -3301,7 +6143,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0.046</v>
@@ -3348,7 +6190,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0.008999999999999999</v>
@@ -3395,7 +6237,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0.008999999999999999</v>
@@ -3442,7 +6284,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.356</v>
@@ -3489,7 +6331,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.017</v>
@@ -3512,7 +6354,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3526,7 +6368,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.022</v>
@@ -3546,7 +6388,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0.021</v>
@@ -3575,7 +6417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -3585,7 +6427,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3606,27 +6448,27 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>2.882</v>
@@ -3667,7 +6509,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>2.882</v>
@@ -3708,7 +6550,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3731,7 +6573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -3741,7 +6583,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3768,27 +6610,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>10.681</v>
@@ -3835,7 +6677,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>4.641</v>
@@ -3882,7 +6724,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1.351</v>
@@ -3929,7 +6771,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1.175</v>
@@ -3972,364 +6814,6 @@
       </c>
       <c r="O5">
         <v>1.494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>2.882</v>
-      </c>
-      <c r="C6">
-        <v>3.026</v>
-      </c>
-      <c r="D6">
-        <v>5.001</v>
-      </c>
-      <c r="F6">
-        <v>0.17</v>
-      </c>
-      <c r="G6">
-        <v>-94.38800000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.021</v>
-      </c>
-      <c r="J6">
-        <v>6.1</v>
-      </c>
-      <c r="K6">
-        <v>18.352</v>
-      </c>
-      <c r="L6">
-        <v>13.728</v>
-      </c>
-      <c r="N6">
-        <v>1.389</v>
-      </c>
-      <c r="O6">
-        <v>0.397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>0.484</v>
-      </c>
-      <c r="C7">
-        <v>0.321</v>
-      </c>
-      <c r="D7">
-        <v>-33.657</v>
-      </c>
-      <c r="E7">
-        <v>0.129</v>
-      </c>
-      <c r="F7">
-        <v>0.322</v>
-      </c>
-      <c r="G7">
-        <v>0.204</v>
-      </c>
-      <c r="H7">
-        <v>0.014</v>
-      </c>
-      <c r="I7">
-        <v>-89.152</v>
-      </c>
-      <c r="J7">
-        <v>1.27</v>
-      </c>
-      <c r="K7">
-        <v>3.083</v>
-      </c>
-      <c r="L7">
-        <v>1.457</v>
-      </c>
-      <c r="M7">
-        <v>2.718</v>
-      </c>
-      <c r="N7">
-        <v>2.632</v>
-      </c>
-      <c r="O7">
-        <v>0.262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>0.148</v>
-      </c>
-      <c r="C8">
-        <v>0.127</v>
-      </c>
-      <c r="D8">
-        <v>-14.51</v>
-      </c>
-      <c r="F8">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="G8">
-        <v>345.963</v>
-      </c>
-      <c r="H8">
-        <v>0.007</v>
-      </c>
-      <c r="J8">
-        <v>0.846</v>
-      </c>
-      <c r="K8">
-        <v>0.9429999999999999</v>
-      </c>
-      <c r="L8">
-        <v>0.574</v>
-      </c>
-      <c r="N8">
-        <v>4.616</v>
-      </c>
-      <c r="O8">
-        <v>0.134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>70.15000000000001</v>
-      </c>
-      <c r="C2">
-        <v>172.385</v>
-      </c>
-      <c r="D2">
-        <v>145.739</v>
-      </c>
-      <c r="E2">
-        <v>51.142</v>
-      </c>
-      <c r="F2">
-        <v>115.587</v>
-      </c>
-      <c r="G2">
-        <v>-32.949</v>
-      </c>
-      <c r="H2">
-        <v>157.546</v>
-      </c>
-      <c r="I2">
-        <v>208.058</v>
-      </c>
-      <c r="J2">
-        <v>566.8099999999999</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>67.854</v>
-      </c>
-      <c r="C3">
-        <v>155.76</v>
-      </c>
-      <c r="D3">
-        <v>129.551</v>
-      </c>
-      <c r="E3">
-        <v>50.016</v>
-      </c>
-      <c r="F3">
-        <v>109.08</v>
-      </c>
-      <c r="G3">
-        <v>-29.969</v>
-      </c>
-      <c r="H3">
-        <v>154.455</v>
-      </c>
-      <c r="I3">
-        <v>208.812</v>
-      </c>
-      <c r="J3">
-        <v>537.164</v>
-      </c>
-      <c r="K3">
-        <v>96.72799999999999</v>
-      </c>
-      <c r="L3">
-        <v>90.35599999999999</v>
-      </c>
-      <c r="M3">
-        <v>97.798</v>
-      </c>
-      <c r="N3">
-        <v>94.371</v>
-      </c>
-      <c r="O3">
-        <v>98.038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>2.057</v>
-      </c>
-      <c r="C4">
-        <v>10.462</v>
-      </c>
-      <c r="D4">
-        <v>408.709</v>
-      </c>
-      <c r="E4">
-        <v>0.805</v>
-      </c>
-      <c r="F4">
-        <v>6.051</v>
-      </c>
-      <c r="G4">
-        <v>-42.166</v>
-      </c>
-      <c r="H4">
-        <v>2.004</v>
-      </c>
-      <c r="I4">
-        <v>148.969</v>
-      </c>
-      <c r="J4">
-        <v>21.377</v>
-      </c>
-      <c r="K4">
-        <v>2.932</v>
-      </c>
-      <c r="L4">
-        <v>6.069</v>
-      </c>
-      <c r="M4">
-        <v>1.574</v>
-      </c>
-      <c r="N4">
-        <v>5.235</v>
-      </c>
-      <c r="O4">
-        <v>1.272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5">
-        <v>0.625</v>
-      </c>
-      <c r="J5">
-        <v>0.625</v>
-      </c>
-      <c r="O5">
-        <v>0.396</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4337,216 +6821,142 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>0.062</v>
+        <v>2.882</v>
       </c>
       <c r="C6">
-        <v>0.214</v>
+        <v>3.026</v>
       </c>
       <c r="D6">
-        <v>247.155</v>
-      </c>
-      <c r="E6">
-        <v>0.174</v>
+        <v>5.001</v>
       </c>
       <c r="F6">
-        <v>0.273</v>
+        <v>0.17</v>
       </c>
       <c r="G6">
-        <v>27.415</v>
+        <v>-94.38800000000001</v>
       </c>
       <c r="H6">
-        <v>0.402</v>
-      </c>
-      <c r="I6">
-        <v>130.946</v>
+        <v>0.021</v>
       </c>
       <c r="J6">
-        <v>1.125</v>
+        <v>6.1</v>
       </c>
       <c r="K6">
-        <v>0.08799999999999999</v>
+        <v>18.352</v>
       </c>
       <c r="L6">
-        <v>0.124</v>
-      </c>
-      <c r="M6">
-        <v>0.34</v>
+        <v>13.728</v>
       </c>
       <c r="N6">
-        <v>0.236</v>
+        <v>1.389</v>
       </c>
       <c r="O6">
-        <v>0.255</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>0.484</v>
       </c>
       <c r="C7">
-        <v>0.012</v>
+        <v>0.321</v>
+      </c>
+      <c r="D7">
+        <v>-33.657</v>
       </c>
       <c r="E7">
-        <v>0.105</v>
+        <v>0.129</v>
       </c>
       <c r="F7">
-        <v>0.105</v>
+        <v>0.322</v>
       </c>
       <c r="G7">
-        <v>742.967</v>
+        <v>0.204</v>
       </c>
       <c r="H7">
-        <v>0.053</v>
+        <v>0.014</v>
       </c>
       <c r="I7">
-        <v>-49.872</v>
+        <v>-89.152</v>
       </c>
       <c r="J7">
-        <v>0.275</v>
+        <v>1.27</v>
+      </c>
+      <c r="K7">
+        <v>3.083</v>
       </c>
       <c r="L7">
-        <v>0.007</v>
+        <v>1.457</v>
       </c>
       <c r="M7">
-        <v>0.205</v>
+        <v>2.718</v>
       </c>
       <c r="N7">
-        <v>0.091</v>
+        <v>2.632</v>
       </c>
       <c r="O7">
-        <v>0.033</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>0.148</v>
+      </c>
+      <c r="C8">
+        <v>0.127</v>
+      </c>
+      <c r="D8">
+        <v>-14.51</v>
+      </c>
+      <c r="F8">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G8">
+        <v>345.963</v>
       </c>
       <c r="H8">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="J8">
-        <v>0.008999999999999999</v>
+        <v>0.846</v>
+      </c>
+      <c r="K8">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.574</v>
+      </c>
+      <c r="N8">
+        <v>4.616</v>
       </c>
       <c r="O8">
-        <v>0.006</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>0.021</v>
-      </c>
-      <c r="E9">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.065</v>
-      </c>
-      <c r="G9">
-        <v>209.359</v>
-      </c>
-      <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.012</v>
-      </c>
-      <c r="M9">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>5.895</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>5.895</v>
-      </c>
-      <c r="L10">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>0.019</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.019</v>
-      </c>
-      <c r="L11">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0.177</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.013</v>
-      </c>
-      <c r="F12">
-        <v>0.013</v>
-      </c>
-      <c r="G12">
-        <v>-92.52</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.204</v>
-      </c>
-      <c r="K12">
-        <v>0.253</v>
-      </c>
-      <c r="M12">
-        <v>0.026</v>
-      </c>
-      <c r="N12">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>0.002</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.002</v>
-      </c>
-      <c r="L13">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4564,7 +6974,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4591,54 +7001,54 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>0.068</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="C2">
-        <v>0.113</v>
+        <v>172.385</v>
       </c>
       <c r="D2">
-        <v>66.92</v>
+        <v>145.739</v>
       </c>
       <c r="E2">
-        <v>0.079</v>
+        <v>51.142</v>
       </c>
       <c r="F2">
-        <v>0.141</v>
+        <v>115.587</v>
       </c>
       <c r="G2">
-        <v>25.31</v>
+        <v>-32.949</v>
       </c>
       <c r="H2">
-        <v>0.157</v>
+        <v>157.546</v>
       </c>
       <c r="I2">
-        <v>98.054</v>
+        <v>208.058</v>
       </c>
       <c r="J2">
-        <v>0.5580000000000001</v>
+        <v>566.8099999999999</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -4658,206 +7068,206 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>0.067</v>
+        <v>67.854</v>
       </c>
       <c r="C3">
-        <v>0.111</v>
+        <v>155.76</v>
       </c>
       <c r="D3">
-        <v>66.291</v>
+        <v>129.551</v>
       </c>
       <c r="E3">
-        <v>0.079</v>
+        <v>50.016</v>
       </c>
       <c r="F3">
-        <v>0.14</v>
+        <v>109.08</v>
       </c>
       <c r="G3">
-        <v>26.331</v>
+        <v>-29.969</v>
       </c>
       <c r="H3">
-        <v>0.156</v>
+        <v>154.455</v>
       </c>
       <c r="I3">
-        <v>97.637</v>
+        <v>208.812</v>
       </c>
       <c r="J3">
-        <v>0.554</v>
+        <v>537.164</v>
       </c>
       <c r="K3">
-        <v>98.876</v>
+        <v>96.72799999999999</v>
       </c>
       <c r="L3">
-        <v>98.503</v>
+        <v>90.35599999999999</v>
       </c>
       <c r="M3">
-        <v>99.631</v>
+        <v>97.798</v>
       </c>
       <c r="N3">
-        <v>99.306</v>
+        <v>94.371</v>
       </c>
       <c r="O3">
-        <v>99.42100000000001</v>
+        <v>98.038</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>2.057</v>
+      </c>
+      <c r="C4">
+        <v>10.462</v>
+      </c>
+      <c r="D4">
+        <v>408.709</v>
+      </c>
+      <c r="E4">
+        <v>0.805</v>
+      </c>
+      <c r="F4">
+        <v>6.051</v>
+      </c>
+      <c r="G4">
+        <v>-42.166</v>
       </c>
       <c r="H4">
-        <v>0.001</v>
+        <v>2.004</v>
+      </c>
+      <c r="I4">
+        <v>148.969</v>
       </c>
       <c r="J4">
-        <v>0.001</v>
+        <v>21.377</v>
+      </c>
+      <c r="K4">
+        <v>2.932</v>
+      </c>
+      <c r="L4">
+        <v>6.069</v>
+      </c>
+      <c r="M4">
+        <v>1.574</v>
+      </c>
+      <c r="N4">
+        <v>5.235</v>
       </c>
       <c r="O4">
-        <v>0.351</v>
+        <v>1.272</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0.001</v>
-      </c>
-      <c r="D5">
-        <v>192.839</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.001</v>
-      </c>
-      <c r="G5">
-        <v>-23.144</v>
+        <v>63</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>51.256</v>
+        <v>0.625</v>
       </c>
       <c r="J5">
-        <v>0.003</v>
-      </c>
-      <c r="K5">
-        <v>0.578</v>
-      </c>
-      <c r="L5">
-        <v>1.015</v>
-      </c>
-      <c r="M5">
-        <v>0.251</v>
-      </c>
-      <c r="N5">
-        <v>0.622</v>
+        <v>0.625</v>
       </c>
       <c r="O5">
-        <v>0.192</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>0.062</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.214</v>
+      </c>
+      <c r="D6">
+        <v>247.155</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="G6">
-        <v>7900</v>
+        <v>27.415</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="I6">
-        <v>-66.25</v>
+        <v>130.946</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.125</v>
+      </c>
+      <c r="K6">
+        <v>0.08799999999999999</v>
       </c>
       <c r="L6">
-        <v>0.001</v>
+        <v>0.124</v>
       </c>
       <c r="M6">
-        <v>0.101</v>
+        <v>0.34</v>
       </c>
       <c r="N6">
-        <v>0.057</v>
+        <v>0.236</v>
       </c>
       <c r="O6">
-        <v>0.017</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
+        <v>0.012</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="G7">
-        <v>-37.5</v>
+        <v>742.967</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>-49.872</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0.012</v>
+        <v>0.275</v>
       </c>
       <c r="L7">
-        <v>0.021</v>
+        <v>0.007</v>
       </c>
       <c r="M7">
-        <v>0.013</v>
+        <v>0.205</v>
       </c>
       <c r="N7">
-        <v>0.011</v>
+        <v>0.091</v>
       </c>
       <c r="O7">
-        <v>0.013</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="O8">
         <v>0.006</v>
@@ -4865,117 +7275,117 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="G9">
-        <v>-77.77800000000001</v>
+        <v>209.359</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="L9">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="M9">
-        <v>0.003</v>
+        <v>0.057</v>
       </c>
       <c r="N9">
-        <v>0.003</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5.895</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.895</v>
       </c>
       <c r="L10">
-        <v>0.44</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="L11">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.177</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="G12">
-        <v>-99.446</v>
+        <v>-92.52</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="K12">
-        <v>0.534</v>
+        <v>0.253</v>
       </c>
       <c r="M12">
-        <v>0.003</v>
+        <v>0.026</v>
       </c>
       <c r="N12">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L13">
         <v>0.001</v>
@@ -4987,6 +7397,438 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0.068</v>
+      </c>
+      <c r="C2">
+        <v>0.113</v>
+      </c>
+      <c r="D2">
+        <v>66.92</v>
+      </c>
+      <c r="E2">
+        <v>0.079</v>
+      </c>
+      <c r="F2">
+        <v>0.141</v>
+      </c>
+      <c r="G2">
+        <v>25.31</v>
+      </c>
+      <c r="H2">
+        <v>0.157</v>
+      </c>
+      <c r="I2">
+        <v>98.054</v>
+      </c>
+      <c r="J2">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0.067</v>
+      </c>
+      <c r="C3">
+        <v>0.111</v>
+      </c>
+      <c r="D3">
+        <v>66.291</v>
+      </c>
+      <c r="E3">
+        <v>0.079</v>
+      </c>
+      <c r="F3">
+        <v>0.14</v>
+      </c>
+      <c r="G3">
+        <v>26.331</v>
+      </c>
+      <c r="H3">
+        <v>0.156</v>
+      </c>
+      <c r="I3">
+        <v>97.637</v>
+      </c>
+      <c r="J3">
+        <v>0.554</v>
+      </c>
+      <c r="K3">
+        <v>98.876</v>
+      </c>
+      <c r="L3">
+        <v>98.503</v>
+      </c>
+      <c r="M3">
+        <v>99.631</v>
+      </c>
+      <c r="N3">
+        <v>99.306</v>
+      </c>
+      <c r="O3">
+        <v>99.42100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>0.001</v>
+      </c>
+      <c r="J4">
+        <v>0.001</v>
+      </c>
+      <c r="O4">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.001</v>
+      </c>
+      <c r="D5">
+        <v>192.839</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.001</v>
+      </c>
+      <c r="G5">
+        <v>-23.144</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>51.256</v>
+      </c>
+      <c r="J5">
+        <v>0.003</v>
+      </c>
+      <c r="K5">
+        <v>0.578</v>
+      </c>
+      <c r="L5">
+        <v>1.015</v>
+      </c>
+      <c r="M5">
+        <v>0.251</v>
+      </c>
+      <c r="N5">
+        <v>0.622</v>
+      </c>
+      <c r="O5">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>7900</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-66.25</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.001</v>
+      </c>
+      <c r="M6">
+        <v>0.101</v>
+      </c>
+      <c r="N6">
+        <v>0.057</v>
+      </c>
+      <c r="O6">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-37.5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.012</v>
+      </c>
+      <c r="L7">
+        <v>0.021</v>
+      </c>
+      <c r="M7">
+        <v>0.013</v>
+      </c>
+      <c r="N7">
+        <v>0.011</v>
+      </c>
+      <c r="O7">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-77.77800000000001</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.016</v>
+      </c>
+      <c r="M9">
+        <v>0.003</v>
+      </c>
+      <c r="N9">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-99.446</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.534</v>
+      </c>
+      <c r="M12">
+        <v>0.003</v>
+      </c>
+      <c r="N12">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -4996,7 +7838,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5023,27 +7865,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>2.118</v>
@@ -5090,7 +7932,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2.057</v>
@@ -5137,7 +7979,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0.062</v>
@@ -5184,7 +8026,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>0.012</v>
@@ -5222,7 +8064,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>0.021</v>
@@ -5254,7 +8096,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>5.895</v>
@@ -5271,7 +8113,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>0.019</v>
@@ -5288,7 +8130,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>0.002</v>
@@ -5301,160 +8143,6 @@
       </c>
       <c r="L9">
         <v>0.001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>15.706</v>
-      </c>
-      <c r="C2">
-        <v>22.045</v>
-      </c>
-      <c r="D2">
-        <v>40.367</v>
-      </c>
-      <c r="E2">
-        <v>4.744</v>
-      </c>
-      <c r="F2">
-        <v>12.229</v>
-      </c>
-      <c r="G2">
-        <v>-44.526</v>
-      </c>
-      <c r="H2">
-        <v>5.343</v>
-      </c>
-      <c r="I2">
-        <v>12.61</v>
-      </c>
-      <c r="J2">
-        <v>60.067</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>15.706</v>
-      </c>
-      <c r="C3">
-        <v>22.045</v>
-      </c>
-      <c r="D3">
-        <v>40.367</v>
-      </c>
-      <c r="E3">
-        <v>4.744</v>
-      </c>
-      <c r="F3">
-        <v>12.229</v>
-      </c>
-      <c r="G3">
-        <v>-44.526</v>
-      </c>
-      <c r="H3">
-        <v>5.343</v>
-      </c>
-      <c r="I3">
-        <v>12.61</v>
-      </c>
-      <c r="J3">
-        <v>60.067</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
